--- a/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>-10,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 39,32</t>
+          <t>-24,06; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 30,9</t>
+          <t>-9,96; 12,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 19,55</t>
+          <t>-14,59; 34,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 25,77</t>
+          <t>-14,24; 34,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 21,22</t>
+          <t>-17,7; 8,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 21,91</t>
+          <t>-10,45; 13,43</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>-11,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 68,88</t>
+          <t>-25,55; 3,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 49,73</t>
+          <t>-10,72; 14,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 33,12</t>
+          <t>-16,25; 64,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 43,79</t>
+          <t>-15,87; 61,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 34,07</t>
+          <t>-19,21; 10,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 33,8</t>
+          <t>-11,19; 16,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>6,8</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 3,92</t>
+          <t>7,03; 39,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 12,62</t>
+          <t>-12,57; 30,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 34,4</t>
+          <t>-24,35; 19,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 34,07</t>
+          <t>-15,74; 25,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 8,38</t>
+          <t>-8,62; 21,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 13,43</t>
+          <t>-8,08; 21,91</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,23%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,37%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>9,1%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 3,75</t>
+          <t>9,75; 68,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 14,52</t>
+          <t>-16,16; 49,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 64,43</t>
+          <t>-28,38; 33,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 61,27</t>
+          <t>-17,84; 43,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 10,41</t>
+          <t>-10,51; 34,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 16,65</t>
+          <t>-9,51; 33,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,55</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-3,14</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -6,01</t>
+          <t>-22,32; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 0,0</t>
+          <t>-33,57; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 17,06</t>
+          <t>-17,78; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 17,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -0,38</t>
+          <t>-14,72; -1,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 4,14</t>
+          <t>-18,46; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-5,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-6,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>-3,14%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -6,01</t>
+          <t>-22,32; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 0,0</t>
+          <t>-33,57; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 22,82</t>
+          <t>-17,78; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 24,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -0,71</t>
+          <t>-14,72; -1,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 4,43</t>
+          <t>-18,46; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>-15,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-1,41</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 3,92</t>
+          <t>-31,6; -1,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 12,62</t>
+          <t>-10,67; 10,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 34,4</t>
+          <t>-20,5; 26,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 34,07</t>
+          <t>-19,02; 26,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 8,38</t>
+          <t>-23,0; 3,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 13,43</t>
+          <t>-13,88; 10,75</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,23%</t>
+          <t>-15,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,37%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 3,75</t>
+          <t>-33,61; -1,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 14,52</t>
+          <t>-10,69; 11,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 64,43</t>
+          <t>-24,54; 44,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 61,27</t>
+          <t>-22,37; 45,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 10,41</t>
+          <t>-25,16; 3,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 16,65</t>
+          <t>-15,81; 13,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>-17,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-20,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>-12,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 39,32</t>
+          <t>-31,28; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 30,9</t>
+          <t>-36,4; -4,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 19,55</t>
+          <t>-42,6; -7,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 25,77</t>
+          <t>-28,75; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 21,22</t>
+          <t>-29,42; -6,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 21,91</t>
+          <t>-25,57; -4,47</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-20,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>-12,25%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 68,88</t>
+          <t>-31,28; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 49,73</t>
+          <t>-36,4; -4,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 33,12</t>
+          <t>-42,6; -7,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 43,79</t>
+          <t>-28,75; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 34,07</t>
+          <t>-29,42; -6,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 33,8</t>
+          <t>-25,57; -4,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>29,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>27,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>15,01</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 8,45</t>
+          <t>7,21; 51,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 11,43</t>
+          <t>2,31; 48,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 13,85</t>
+          <t>-27,05; 31,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 15,17</t>
+          <t>-17,28; 38,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 6,78</t>
+          <t>-3,93; 34,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 9,32</t>
+          <t>-6,11; 32,87</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>23,14%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 9,86</t>
+          <t>9,88; 112,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 13,8</t>
+          <t>4,26; 103,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 19,7</t>
+          <t>-32,69; 67,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 21,35</t>
+          <t>-21,3; 91,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 8,24</t>
+          <t>-5,81; 68,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 11,44</t>
+          <t>-7,88; 61,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 8,14</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 11,81</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 13,3</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 16,54</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 5,77</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 9,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,45%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,17; 9,74</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 14,41</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 19,57</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; 23,16</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-10,18; 7,2</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 11,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 0,0</t>
+          <t>-23,53; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 0,0</t>
+          <t>-29,25; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 0,0</t>
+          <t>-18,32; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -1,95</t>
+          <t>-14,22; -1,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 0,0</t>
+          <t>-15,53; 0,0</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 0,0</t>
+          <t>-23,53; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 0,0</t>
+          <t>-29,25; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 0,0</t>
+          <t>-18,32; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -1,95</t>
+          <t>-14,22; -1,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 0,0</t>
+          <t>-15,53; 0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -1,13</t>
+          <t>-30,97; -2,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 10,56</t>
+          <t>-8,28; 10,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 26,8</t>
+          <t>-21,16; 23,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 26,42</t>
+          <t>-19,86; 26,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 3,55</t>
+          <t>-22,49; 4,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 10,75</t>
+          <t>-14,37; 10,58</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,61; -1,49</t>
+          <t>-32,11; -2,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 11,9</t>
+          <t>-8,47; 12,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 44,48</t>
+          <t>-25,03; 40,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 45,08</t>
+          <t>-23,21; 45,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 3,88</t>
+          <t>-25,14; 4,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 13,25</t>
+          <t>-16,05; 13,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 0,0</t>
+          <t>-31,46; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,4; -4,69</t>
+          <t>-38,54; -4,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-42,6; -7,79</t>
+          <t>-39,25; -7,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 0,0</t>
+          <t>-36,48; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,42; -6,69</t>
+          <t>-30,78; -7,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,57; -4,47</t>
+          <t>-26,13; -4,63</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 0,0</t>
+          <t>-31,46; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,4; -4,69</t>
+          <t>-38,54; -4,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,6; -7,79</t>
+          <t>-39,25; -7,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 0,0</t>
+          <t>-36,48; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,42; -6,69</t>
+          <t>-30,78; -7,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,57; -4,47</t>
+          <t>-26,13; -4,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 51,49</t>
+          <t>6,83; 51,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 48,5</t>
+          <t>-1,93; 51,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 31,45</t>
+          <t>-25,68; 30,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 38,89</t>
+          <t>-20,36; 35,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 34,29</t>
+          <t>-2,76; 33,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 32,87</t>
+          <t>-6,32; 31,74</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,88; 112,7</t>
+          <t>9,43; 123,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 103,28</t>
+          <t>-0,76; 111,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 67,66</t>
+          <t>-35,0; 69,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 91,78</t>
+          <t>-24,39; 79,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 68,17</t>
+          <t>-3,28; 64,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 61,39</t>
+          <t>-7,31; 60,82</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 8,14</t>
+          <t>-10,9; 8,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 11,81</t>
+          <t>-7,02; 11,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 13,3</t>
+          <t>-10,7; 13,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 16,54</t>
+          <t>-9,05; 15,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 5,77</t>
+          <t>-8,64; 6,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 9,16</t>
+          <t>-6,11; 9,2</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 9,74</t>
+          <t>-11,69; 9,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 14,41</t>
+          <t>-7,42; 13,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 19,57</t>
+          <t>-12,15; 19,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 23,16</t>
+          <t>-10,59; 22,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 7,2</t>
+          <t>-9,79; 8,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 11,31</t>
+          <t>-6,85; 11,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-5,22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-7,41</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-5,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,22</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 0,0</t>
+          <t>-16,16; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 0,0</t>
+          <t>-25,75; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,42; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -1,5</t>
+          <t>-14,26; -2,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 0,0</t>
+          <t>-13,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-7,41%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>-5,79%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,22%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 0,0</t>
+          <t>-16,16; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 0,0</t>
+          <t>-25,75; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,42; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -1,5</t>
+          <t>-14,26; -2,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 0,0</t>
+          <t>-13,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-15,11</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>1,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,97; -2,06</t>
+          <t>-22,68; 25,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 10,82</t>
+          <t>-18,35; 29,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 23,51</t>
+          <t>-30,11; -1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 26,4</t>
+          <t>-8,6; 10,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 4,26</t>
+          <t>-21,6; 2,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 10,58</t>
+          <t>-13,98; 11,01</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-15,96%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>1,91%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -2,41</t>
+          <t>-26,38; 44,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 12,89</t>
+          <t>-21,18; 52,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 40,18</t>
+          <t>-30,8; -1,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 45,04</t>
+          <t>-8,84; 12,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 4,88</t>
+          <t>-24,02; 3,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 13,13</t>
+          <t>-15,52; 13,84</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-20,47</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-6,05</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-10,21</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-17,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-20,47</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 0,0</t>
+          <t>-41,52; -7,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,54; -4,59</t>
+          <t>-29,81; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -7,79</t>
+          <t>-27,1; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 0,0</t>
+          <t>-36,83; -4,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -7,01</t>
+          <t>-28,43; -6,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,13; -4,63</t>
+          <t>-25,84; -4,76</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-20,47%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-6,05%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-10,21%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-17,21%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-20,47%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-6,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 0,0</t>
+          <t>-41,52; -7,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,54; -4,59</t>
+          <t>-29,81; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -7,79</t>
+          <t>-27,1; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 0,0</t>
+          <t>-36,83; -4,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -7,01</t>
+          <t>-28,43; -6,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,13; -4,63</t>
+          <t>-25,84; -4,76</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9,13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>29,73</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>27,15</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 51,77</t>
+          <t>-25,27; 30,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 51,53</t>
+          <t>-20,07; 36,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 30,52</t>
+          <t>7,22; 51,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 35,8</t>
+          <t>1,87; 47,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 33,05</t>
+          <t>-5,62; 33,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 31,74</t>
+          <t>-5,85; 33,46</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>45,67%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>41,7%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,43; 123,49</t>
+          <t>-31,86; 71,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 111,44</t>
+          <t>-23,32; 81,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 69,45</t>
+          <t>9,36; 121,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 79,43</t>
+          <t>2,58; 96,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 64,37</t>
+          <t>-6,99; 64,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 60,82</t>
+          <t>-6,62; 64,17</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-1,31</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>2,22</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 8,31</t>
+          <t>-11,16; 13,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 11,53</t>
+          <t>-11,05; 15,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 13,68</t>
+          <t>-10,7; 8,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 15,93</t>
+          <t>-6,89; 11,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 6,49</t>
+          <t>-8,8; 6,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 9,2</t>
+          <t>-6,27; 9,32</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-1,48%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>2,49%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 9,62</t>
+          <t>-12,88; 19,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 13,95</t>
+          <t>-12,64; 21,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 19,11</t>
+          <t>-11,59; 9,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 22,3</t>
+          <t>-7,5; 13,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 8,09</t>
+          <t>-10,1; 8,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 11,5</t>
+          <t>-7,18; 11,44</t>
         </is>
       </c>
     </row>
